--- a/outputs/hits_k_excel/hits_k_zeroshot_en.xlsx
+++ b/outputs/hits_k_excel/hits_k_zeroshot_en.xlsx
@@ -453,14 +453,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1382</v>
+        <v>1421</v>
       </c>
       <c r="C2" t="n">
         <v>3933</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35.14%</t>
+          <t>36.13%</t>
         </is>
       </c>
     </row>
@@ -469,14 +469,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2752</v>
+        <v>2836</v>
       </c>
       <c r="C3" t="n">
         <v>7866</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>34.99%</t>
+          <t>36.05%</t>
         </is>
       </c>
     </row>
@@ -485,14 +485,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4089</v>
+        <v>4215</v>
       </c>
       <c r="C4" t="n">
         <v>11799</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>34.66%</t>
+          <t>35.72%</t>
         </is>
       </c>
     </row>
@@ -501,14 +501,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5443</v>
+        <v>5614</v>
       </c>
       <c r="C5" t="n">
         <v>15732</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>34.60%</t>
+          <t>35.69%</t>
         </is>
       </c>
     </row>
@@ -517,14 +517,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6818</v>
+        <v>7044</v>
       </c>
       <c r="C6" t="n">
         <v>19665</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>34.67%</t>
+          <t>35.82%</t>
         </is>
       </c>
     </row>
@@ -574,14 +574,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>806</v>
+        <v>831</v>
       </c>
       <c r="C2" t="n">
         <v>2432</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>33.14%</t>
+          <t>34.17%</t>
         </is>
       </c>
     </row>
@@ -590,14 +590,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1592</v>
+        <v>1648</v>
       </c>
       <c r="C3" t="n">
         <v>4864</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>32.73%</t>
+          <t>33.88%</t>
         </is>
       </c>
     </row>
@@ -606,14 +606,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2385</v>
+        <v>2478</v>
       </c>
       <c r="C4" t="n">
         <v>7296</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>32.69%</t>
+          <t>33.96%</t>
         </is>
       </c>
     </row>
@@ -622,14 +622,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3189</v>
+        <v>3317</v>
       </c>
       <c r="C5" t="n">
         <v>9728</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32.78%</t>
+          <t>34.10%</t>
         </is>
       </c>
     </row>
@@ -638,14 +638,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3977</v>
+        <v>4147</v>
       </c>
       <c r="C6" t="n">
         <v>12160</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>32.71%</t>
+          <t>34.10%</t>
         </is>
       </c>
     </row>
@@ -695,14 +695,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C2" t="n">
         <v>655</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.65%</t>
+          <t>25.80%</t>
         </is>
       </c>
     </row>
@@ -711,14 +711,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C3" t="n">
         <v>1310</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.11%</t>
+          <t>25.50%</t>
         </is>
       </c>
     </row>
@@ -727,14 +727,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="C4" t="n">
         <v>1965</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24.33%</t>
+          <t>24.68%</t>
         </is>
       </c>
     </row>
@@ -743,14 +743,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="C5" t="n">
         <v>2620</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23.70%</t>
+          <t>24.01%</t>
         </is>
       </c>
     </row>
@@ -759,14 +759,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>800</v>
+        <v>809</v>
       </c>
       <c r="C6" t="n">
         <v>3275</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24.43%</t>
+          <t>24.70%</t>
         </is>
       </c>
     </row>
@@ -816,14 +816,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="C2" t="n">
         <v>573</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>51.83%</t>
+          <t>53.75%</t>
         </is>
       </c>
     </row>
@@ -832,14 +832,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="C3" t="n">
         <v>1146</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>53.58%</t>
+          <t>55.06%</t>
         </is>
       </c>
     </row>
@@ -848,14 +848,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>905</v>
+        <v>924</v>
       </c>
       <c r="C4" t="n">
         <v>1719</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>52.65%</t>
+          <t>53.75%</t>
         </is>
       </c>
     </row>
@@ -864,14 +864,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1202</v>
+        <v>1228</v>
       </c>
       <c r="C5" t="n">
         <v>2292</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>52.44%</t>
+          <t>53.58%</t>
         </is>
       </c>
     </row>
@@ -880,14 +880,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1499</v>
+        <v>1533</v>
       </c>
       <c r="C6" t="n">
         <v>2865</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>52.32%</t>
+          <t>53.51%</t>
         </is>
       </c>
     </row>
@@ -937,14 +937,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C2" t="n">
         <v>265</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>40.38%</t>
+          <t>41.13%</t>
         </is>
       </c>
     </row>
@@ -953,14 +953,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C3" t="n">
         <v>530</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>40.00%</t>
+          <t>40.94%</t>
         </is>
       </c>
     </row>
@@ -969,14 +969,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C4" t="n">
         <v>795</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>39.50%</t>
+          <t>40.25%</t>
         </is>
       </c>
     </row>
@@ -985,14 +985,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="C5" t="n">
         <v>1060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>39.72%</t>
+          <t>40.38%</t>
         </is>
       </c>
     </row>
@@ -1001,14 +1001,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="C6" t="n">
         <v>1325</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>40.00%</t>
+          <t>40.68%</t>
         </is>
       </c>
     </row>
@@ -1074,14 +1074,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>16</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>31.25%</t>
+          <t>37.50%</t>
         </is>
       </c>
     </row>
@@ -1090,14 +1090,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>24</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>29.17%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -1106,14 +1106,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
         <v>32</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>31.25%</t>
+          <t>37.50%</t>
         </is>
       </c>
     </row>
@@ -1122,14 +1122,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
         <v>40</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30.00%</t>
+          <t>40.00%</t>
         </is>
       </c>
     </row>

--- a/outputs/hits_k_excel/hits_k_zeroshot_en.xlsx
+++ b/outputs/hits_k_excel/hits_k_zeroshot_en.xlsx
@@ -9,10 +9,19 @@
   <sheets>
     <sheet name="Total Hits" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Hits_entity" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Hits_numerical" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Hits_boolean" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Hits_date" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Hits_string" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Hits_intersection" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Hits_numerical" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Hits_count" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Hits_comparative" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Hits_boolean" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Hits_yesno" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Hits_date" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Hits_generic" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Hits_ordinal" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Hits_multihop" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Hits_string" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Hits_difference" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Hits_superlative" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -533,6 +542,732 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hits</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tested</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>348</v>
+      </c>
+      <c r="C2" t="n">
+        <v>775</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>679</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.81%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1008</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2325</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1356</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3100</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1700</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3875</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>43.87%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hits</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tested</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>108</v>
+      </c>
+      <c r="C2" t="n">
+        <v>396</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>205</v>
+      </c>
+      <c r="C3" t="n">
+        <v>792</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>302</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1188</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>417</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1584</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>523</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.41%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hits</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tested</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>64</v>
+      </c>
+      <c r="C2" t="n">
+        <v>391</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>126</v>
+      </c>
+      <c r="C3" t="n">
+        <v>782</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>194</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1173</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.54%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>256</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1564</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>320</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1955</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.37%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hits</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tested</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>16</v>
+      </c>
+      <c r="C6" t="n">
+        <v>40</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hits</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tested</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>60</v>
+      </c>
+      <c r="C2" t="n">
+        <v>391</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>133</v>
+      </c>
+      <c r="C3" t="n">
+        <v>782</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>212</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1173</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>275</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1564</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>353</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1955</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.06%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hits</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tested</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>82</v>
+      </c>
+      <c r="C2" t="n">
+        <v>385</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.30%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C3" t="n">
+        <v>770</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>270</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1155</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>356</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1540</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>436</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1925</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.65%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -695,14 +1430,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C2" t="n">
-        <v>655</v>
+        <v>397</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.80%</t>
+          <t>39.55%</t>
         </is>
       </c>
     </row>
@@ -711,14 +1446,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="C3" t="n">
-        <v>1310</v>
+        <v>794</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.50%</t>
+          <t>39.17%</t>
         </is>
       </c>
     </row>
@@ -727,14 +1462,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="C4" t="n">
-        <v>1965</v>
+        <v>1191</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24.68%</t>
+          <t>39.88%</t>
         </is>
       </c>
     </row>
@@ -743,14 +1478,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="C5" t="n">
-        <v>2620</v>
+        <v>1588</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24.01%</t>
+          <t>39.99%</t>
         </is>
       </c>
     </row>
@@ -759,14 +1494,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>809</v>
+        <v>790</v>
       </c>
       <c r="C6" t="n">
-        <v>3275</v>
+        <v>1985</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24.70%</t>
+          <t>39.80%</t>
         </is>
       </c>
     </row>
@@ -816,14 +1551,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>308</v>
+        <v>169</v>
       </c>
       <c r="C2" t="n">
-        <v>573</v>
+        <v>655</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>53.75%</t>
+          <t>25.80%</t>
         </is>
       </c>
     </row>
@@ -832,14 +1567,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>631</v>
+        <v>334</v>
       </c>
       <c r="C3" t="n">
-        <v>1146</v>
+        <v>1310</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>55.06%</t>
+          <t>25.50%</t>
         </is>
       </c>
     </row>
@@ -848,14 +1583,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>924</v>
+        <v>485</v>
       </c>
       <c r="C4" t="n">
-        <v>1719</v>
+        <v>1965</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>53.75%</t>
+          <t>24.68%</t>
         </is>
       </c>
     </row>
@@ -864,14 +1599,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1228</v>
+        <v>629</v>
       </c>
       <c r="C5" t="n">
-        <v>2292</v>
+        <v>2620</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>53.58%</t>
+          <t>24.01%</t>
         </is>
       </c>
     </row>
@@ -880,14 +1615,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1533</v>
+        <v>809</v>
       </c>
       <c r="C6" t="n">
-        <v>2865</v>
+        <v>3275</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>53.51%</t>
+          <t>24.70%</t>
         </is>
       </c>
     </row>
@@ -937,14 +1672,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C2" t="n">
-        <v>265</v>
+        <v>400</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>41.13%</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -953,14 +1688,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="C3" t="n">
-        <v>530</v>
+        <v>800</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>40.94%</t>
+          <t>29.88%</t>
         </is>
       </c>
     </row>
@@ -969,14 +1704,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="C4" t="n">
-        <v>795</v>
+        <v>1200</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>40.25%</t>
+          <t>27.92%</t>
         </is>
       </c>
     </row>
@@ -985,14 +1720,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C5" t="n">
-        <v>1060</v>
+        <v>1600</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>40.38%</t>
+          <t>27.00%</t>
         </is>
       </c>
     </row>
@@ -1001,14 +1736,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="C6" t="n">
-        <v>1325</v>
+        <v>2000</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>40.68%</t>
+          <t>28.00%</t>
         </is>
       </c>
     </row>
@@ -1058,14 +1793,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>262</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>398</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>65.83%</t>
         </is>
       </c>
     </row>
@@ -1074,14 +1809,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>515</v>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>796</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>37.50%</t>
+          <t>64.70%</t>
         </is>
       </c>
     </row>
@@ -1090,14 +1825,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>753</v>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>1194</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>63.07%</t>
         </is>
       </c>
     </row>
@@ -1106,14 +1841,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>1006</v>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>1592</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>37.50%</t>
+          <t>63.19%</t>
         </is>
       </c>
     </row>
@@ -1122,14 +1857,377 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16</v>
+        <v>1259</v>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>1990</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>40.00%</t>
+          <t>63.27%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hits</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tested</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>308</v>
+      </c>
+      <c r="C2" t="n">
+        <v>573</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>631</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1146</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>924</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1719</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1228</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2292</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1533</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2865</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>53.51%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hits</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tested</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>220</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>448</v>
+      </c>
+      <c r="C3" t="n">
+        <v>800</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>666</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>55.50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>881</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>55.06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1103</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>55.15%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hits</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tested</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>109</v>
+      </c>
+      <c r="C2" t="n">
+        <v>265</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>217</v>
+      </c>
+      <c r="C3" t="n">
+        <v>530</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.94%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>320</v>
+      </c>
+      <c r="C4" t="n">
+        <v>795</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>428</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1060</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>539</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1325</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.68%</t>
         </is>
       </c>
     </row>
